--- a/Evaluering af sprints/Burn down chart - sprint 7.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\Bachelor\Evaluering af sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\Automatic-Sonography\Evaluering af sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>Backlog</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>STALLED</t>
+  </si>
+  <si>
+    <t>Falder pr. dag</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +384,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -427,11 +436,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +491,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,22 +701,22 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,15 +1748,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2058,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,13 +2111,14 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2100,17 +2129,17 @@
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="G2" s="11">
+      <c r="G2" s="24">
         <v>42702</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="23">
         <v>1</v>
       </c>
-      <c r="I2" s="12">
-        <f>C62-$G$14</f>
+      <c r="I2" s="25">
+        <f>C62-$H$14</f>
         <v>160.19999999999999</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="25">
         <f>C62-SUMIF($D$2:$D$61, G2, $C$2:$C$61)</f>
         <v>161</v>
       </c>
@@ -2123,21 +2152,23 @@
       <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="7">
+        <v>42709</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="24">
         <v>42703</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="23">
         <v>2</v>
       </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I11" si="0">I2-$G$14</f>
+      <c r="I3" s="25">
+        <f t="shared" ref="I3:I11" si="0">I2-$H$14</f>
         <v>142.39999999999998</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="25">
         <f>J2-SUMIF($D$2:$D$61, G3, $C$2:$C$61)</f>
         <v>145</v>
       </c>
@@ -2151,18 +2182,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="23"/>
-      <c r="G4" s="11">
+      <c r="E4" s="27"/>
+      <c r="G4" s="24">
         <v>42704</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="23">
         <v>3</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="25">
         <f t="shared" si="0"/>
         <v>124.59999999999998</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="25">
         <f>J3-SUMIF($D$2:$D$61, G4, $C$2:$C$61)</f>
         <v>134</v>
       </c>
@@ -2174,19 +2205,21 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="11">
+      <c r="D5" s="7">
+        <v>42706</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="G5" s="24">
         <v>42705</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="23">
         <v>4</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="25">
         <f t="shared" si="0"/>
         <v>106.79999999999998</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="25">
         <f ca="1">J4-SUMIF($D$2:$D$209, G5, $C$2:$C$208)</f>
         <v>129</v>
       </c>
@@ -2198,21 +2231,23 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="11">
+      <c r="D6" s="7">
         <v>42706</v>
       </c>
-      <c r="H6">
+      <c r="E6" s="27"/>
+      <c r="G6" s="24">
+        <v>42706</v>
+      </c>
+      <c r="H6" s="23">
         <v>5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="25">
         <f t="shared" si="0"/>
         <v>88.999999999999986</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="25">
         <f ca="1">J5-SUMIF($D$2:$D$61, G6, $C$2:$C$61)</f>
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2222,21 +2257,23 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="23"/>
-      <c r="G7" s="11">
+      <c r="D7" s="7">
         <v>42709</v>
       </c>
-      <c r="H7">
+      <c r="E7" s="27"/>
+      <c r="G7" s="24">
+        <v>42709</v>
+      </c>
+      <c r="H7" s="23">
         <v>6</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="25">
         <f t="shared" si="0"/>
         <v>71.199999999999989</v>
       </c>
-      <c r="J7" s="12">
-        <f ca="1">J6-SUMIF($D$2:$D$61,#REF!, $C$2:$C$61)</f>
-        <v>129</v>
+      <c r="J7" s="25">
+        <f ca="1">J6-SUMIF($D$2:$D$61,G7, $C$2:$C$61)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2247,20 +2284,20 @@
         <v>3</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="23"/>
-      <c r="G8" s="11">
+      <c r="E8" s="27"/>
+      <c r="G8" s="24">
         <v>42710</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="23">
         <v>7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="25">
         <f t="shared" si="0"/>
         <v>53.399999999999991</v>
       </c>
-      <c r="J8" s="12">
-        <f ca="1">J7-SUMIF($D$2:$D$209,#REF!, $C$2:$C$208)</f>
-        <v>129</v>
+      <c r="J8" s="25">
+        <f ca="1">J7-SUMIF($D$2:$D$209,G8, $C$2:$C$208)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2270,19 +2307,19 @@
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
-      <c r="G9" s="11">
+      <c r="G9" s="24">
         <v>42711</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="23">
         <v>8</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="25">
         <f t="shared" si="0"/>
         <v>35.599999999999994</v>
       </c>
-      <c r="J9" s="12">
-        <f ca="1">J8-SUMIF($D$2:$D$61, G7, $C$2:$C$61)</f>
-        <v>129</v>
+      <c r="J9" s="25">
+        <f ca="1">J8-SUMIF($D$2:$D$61, G9, $C$2:$C$61)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2295,22 +2332,22 @@
       <c r="D10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="24">
         <v>42712</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="23">
         <v>9</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="25">
         <f t="shared" si="0"/>
         <v>17.799999999999994</v>
       </c>
-      <c r="J10" s="12">
-        <f ca="1">J9-SUMIF($D$2:$D$61, G8, $C$2:$C$61)</f>
-        <v>129</v>
+      <c r="J10" s="25">
+        <f ca="1">J9-SUMIF($D$2:$D$61, G10, $C$2:$C$61)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2323,20 +2360,20 @@
       <c r="D11" s="7">
         <v>42704</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="G11" s="11">
+      <c r="E11" s="27"/>
+      <c r="G11" s="24">
         <v>42713</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="23">
         <v>10</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="12">
-        <f ca="1">J10-SUMIF($D$2:$D$209, G9, $C$2:$C$208)</f>
-        <v>129</v>
+      <c r="J11" s="25">
+        <f ca="1">J10-SUMIF($D$2:$D$209, G11, $C$2:$C$208)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,7 +2387,7 @@
       <c r="D12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="27"/>
       <c r="G12" s="11"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2378,7 +2415,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="18"/>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14">
         <f>C62/H11</f>
         <v>17.8</v>
       </c>
@@ -2672,7 +2712,9 @@
       <c r="C42" s="5">
         <v>6</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>42709</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
@@ -2873,7 +2915,9 @@
       <c r="C61" s="17">
         <v>4</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="8">
+        <v>42709</v>
+      </c>
       <c r="E61" s="19"/>
       <c r="I61" s="16"/>
       <c r="J61" s="13"/>
@@ -3439,6 +3483,7 @@
     <mergeCell ref="E10:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Evaluering af sprints/Burn down chart - sprint 7.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 7.xlsx
@@ -704,19 +704,19 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2181,9 @@
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>42710</v>
+      </c>
       <c r="E4" s="27"/>
       <c r="G4" s="24">
         <v>42704</v>
@@ -2273,7 +2275,7 @@
       </c>
       <c r="J7" s="25">
         <f ca="1">J6-SUMIF($D$2:$D$61,G7, $C$2:$C$61)</f>
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2297,7 +2299,7 @@
       </c>
       <c r="J8" s="25">
         <f ca="1">J7-SUMIF($D$2:$D$209,G8, $C$2:$C$208)</f>
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2319,7 +2321,7 @@
       </c>
       <c r="J9" s="25">
         <f ca="1">J8-SUMIF($D$2:$D$61, G9, $C$2:$C$61)</f>
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,7 +2349,7 @@
       </c>
       <c r="J10" s="25">
         <f ca="1">J9-SUMIF($D$2:$D$61, G10, $C$2:$C$61)</f>
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2373,7 +2375,7 @@
       </c>
       <c r="J11" s="25">
         <f ca="1">J10-SUMIF($D$2:$D$209, G11, $C$2:$C$208)</f>
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2663,7 +2665,9 @@
       <c r="C37" s="5">
         <v>2</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>42709</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -2673,7 +2677,9 @@
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>42709</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -2723,7 +2729,9 @@
       <c r="C43" s="5">
         <v>6</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="7">
+        <v>42709</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -2732,7 +2740,9 @@
       <c r="C44" s="5">
         <v>6</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>42709</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>

--- a/Evaluering af sprints/Burn down chart - sprint 7.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 7.xlsx
@@ -704,19 +704,19 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="J7" s="25">
         <f ca="1">J6-SUMIF($D$2:$D$61,G7, $C$2:$C$61)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2285,7 +2285,9 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>42710</v>
+      </c>
       <c r="E8" s="27"/>
       <c r="G8" s="24">
         <v>42710</v>
@@ -2299,7 +2301,7 @@
       </c>
       <c r="J8" s="25">
         <f ca="1">J7-SUMIF($D$2:$D$209,G8, $C$2:$C$208)</f>
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,7 +2323,7 @@
       </c>
       <c r="J9" s="25">
         <f ca="1">J8-SUMIF($D$2:$D$61, G9, $C$2:$C$61)</f>
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2351,7 @@
       </c>
       <c r="J10" s="25">
         <f ca="1">J9-SUMIF($D$2:$D$61, G10, $C$2:$C$61)</f>
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2375,7 +2377,7 @@
       </c>
       <c r="J11" s="25">
         <f ca="1">J10-SUMIF($D$2:$D$209, G11, $C$2:$C$208)</f>
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2709,7 +2711,9 @@
       <c r="C41" s="5">
         <v>6</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>42710</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
@@ -2752,7 +2756,9 @@
       <c r="C45" s="5">
         <v>6</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>42710</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -2762,7 +2768,9 @@
       <c r="C46" s="5">
         <v>6</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="7">
+        <v>42710</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
@@ -2873,7 +2881,9 @@
       <c r="C57" s="5">
         <v>3</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7">
+        <v>42709</v>
+      </c>
       <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">

--- a/Evaluering af sprints/Burn down chart - sprint 7.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 7.xlsx
@@ -707,16 +707,16 @@
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="J8" s="25">
         <f ca="1">J7-SUMIF($D$2:$D$209,G8, $C$2:$C$208)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="J9" s="25">
         <f ca="1">J8-SUMIF($D$2:$D$61, G9, $C$2:$C$61)</f>
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="J10" s="25">
         <f ca="1">J9-SUMIF($D$2:$D$61, G10, $C$2:$C$61)</f>
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J11" s="25">
         <f ca="1">J10-SUMIF($D$2:$D$209, G11, $C$2:$C$208)</f>
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,9 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>42710</v>
+      </c>
       <c r="E15" s="18"/>
       <c r="G15" s="11"/>
       <c r="I15" s="12"/>
@@ -2510,7 +2512,9 @@
       <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -2519,7 +2523,9 @@
       <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -2528,7 +2534,9 @@
       <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -2537,7 +2545,9 @@
       <c r="C24" s="5">
         <v>6</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7">
+        <v>42711</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -2557,7 +2567,9 @@
       <c r="C26" s="5">
         <v>4</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>42711</v>
+      </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2567,7 +2579,9 @@
       <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -2629,7 +2643,9 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
@@ -2701,7 +2717,9 @@
       <c r="C40" s="5">
         <v>6</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>42711</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -2779,7 +2797,9 @@
       <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -2789,7 +2809,9 @@
       <c r="C48" s="5">
         <v>8</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="7">
+        <v>42712</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -2923,7 +2945,9 @@
       <c r="C60" s="5">
         <v>2</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7">
+        <v>42713</v>
+      </c>
       <c r="E60" s="19"/>
       <c r="I60" s="16"/>
       <c r="J60" s="13"/>

--- a/Evaluering af sprints/Burn down chart - sprint 7.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 7.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>Backlog</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Falder pr. dag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 7 </t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +368,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -391,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -411,13 +421,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -433,14 +497,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -451,53 +517,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,11 +729,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Ark1'!$H$2:$H$11</c15:sqref>
+                    <c15:sqref>'Ark1'!$H$3:$H$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Ark1'!$H$2:$H$11</c:f>
+              <c:f>'Ark1'!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -680,11 +775,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Ark1'!$J$2:$J$16</c15:sqref>
+                    <c15:sqref>'Ark1'!$J$3:$J$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Ark1'!$J$2:$J$11</c:f>
+              <c:f>'Ark1'!$J$3:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -713,10 +808,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,11 +859,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Ark1'!$H$2:$H$11</c15:sqref>
+                    <c15:sqref>'Ark1'!$H$3:$H$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Ark1'!$H$2:$H$11</c:f>
+              <c:f>'Ark1'!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -810,11 +905,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Ark1'!$I$2:$I$16</c15:sqref>
+                    <c15:sqref>'Ark1'!$I$3:$I$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Ark1'!$I$2:$I$11</c:f>
+              <c:f>'Ark1'!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1750,13 +1845,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2084,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,1431 +2195,1477 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="G2" s="24">
+      <c r="B3" s="24"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="35"/>
+      <c r="G3" s="15">
         <v>42702</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H3" s="14">
         <v>1</v>
       </c>
-      <c r="I2" s="25">
-        <f>C62-$H$14</f>
+      <c r="I3" s="16">
+        <f>C63-$H$15</f>
         <v>160.19999999999999</v>
       </c>
-      <c r="J2" s="25">
-        <f>C62-SUMIF($D$2:$D$61, G2, $C$2:$C$61)</f>
+      <c r="J3" s="16">
+        <f>C63-SUMIF($D$3:$D$62, G3, $C$3:$C$62)</f>
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="31">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="36">
         <v>42709</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G4" s="15">
         <v>42703</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I3" s="25">
-        <f t="shared" ref="I3:I11" si="0">I2-$H$14</f>
+      <c r="I4" s="16">
+        <f t="shared" ref="I4:I12" si="0">I3-$H$15</f>
         <v>142.39999999999998</v>
       </c>
-      <c r="J3" s="25">
-        <f>J2-SUMIF($D$2:$D$61, G3, $C$2:$C$61)</f>
+      <c r="J4" s="16">
+        <f>J3-SUMIF($D$3:$D$62, G4, $C$3:$C$62)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="31">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="36">
         <v>42710</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="G4" s="24">
+      <c r="E5" s="18"/>
+      <c r="G5" s="15">
         <v>42704</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H5" s="14">
         <v>3</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>124.59999999999998</v>
       </c>
-      <c r="J4" s="25">
-        <f>J3-SUMIF($D$2:$D$61, G4, $C$2:$C$61)</f>
+      <c r="J5" s="16">
+        <f>J4-SUMIF($D$3:$D$62, G5, $C$3:$C$62)</f>
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="31">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="36">
         <v>42706</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="G5" s="24">
+      <c r="E6" s="18"/>
+      <c r="G6" s="15">
         <v>42705</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H6" s="14">
         <v>4</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I6" s="16">
         <f t="shared" si="0"/>
         <v>106.79999999999998</v>
       </c>
-      <c r="J5" s="25">
-        <f ca="1">J4-SUMIF($D$2:$D$209, G5, $C$2:$C$208)</f>
+      <c r="J6" s="16">
+        <f ca="1">J5-SUMIF($D$3:$D$210, G6, $C$3:$C$209)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="36">
         <v>42706</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="G6" s="24">
+      <c r="E7" s="18"/>
+      <c r="G7" s="15">
         <v>42706</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H7" s="14">
         <v>5</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I7" s="16">
         <f t="shared" si="0"/>
         <v>88.999999999999986</v>
       </c>
-      <c r="J6" s="25">
-        <f ca="1">J5-SUMIF($D$2:$D$61, G6, $C$2:$C$61)</f>
+      <c r="J7" s="16">
+        <f ca="1">J6-SUMIF($D$3:$D$62, G7, $C$3:$C$62)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="31">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="36">
         <v>42709</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="G7" s="24">
+      <c r="E8" s="18"/>
+      <c r="G8" s="15">
         <v>42709</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H8" s="14">
         <v>6</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I8" s="16">
         <f t="shared" si="0"/>
         <v>71.199999999999989</v>
       </c>
-      <c r="J7" s="25">
-        <f ca="1">J6-SUMIF($D$2:$D$61,G7, $C$2:$C$61)</f>
+      <c r="J8" s="16">
+        <f ca="1">J7-SUMIF($D$3:$D$62,G8, $C$3:$C$62)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="31">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="36">
         <v>42710</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="G8" s="24">
+      <c r="E9" s="18"/>
+      <c r="G9" s="15">
         <v>42710</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H9" s="14">
         <v>7</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>53.399999999999991</v>
       </c>
-      <c r="J8" s="25">
-        <f ca="1">J7-SUMIF($D$2:$D$209,G8, $C$2:$C$208)</f>
+      <c r="J9" s="16">
+        <f ca="1">J8-SUMIF($D$3:$D$210,G9, $C$3:$C$209)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="G9" s="24">
+      <c r="B10" s="24"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="36"/>
+      <c r="G10" s="15">
         <v>42711</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H10" s="14">
         <v>8</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
         <v>35.599999999999994</v>
       </c>
-      <c r="J9" s="25">
-        <f ca="1">J8-SUMIF($D$2:$D$61, G9, $C$2:$C$61)</f>
+      <c r="J10" s="16">
+        <f ca="1">J9-SUMIF($D$3:$D$62, G10, $C$3:$C$62)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+    <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="31">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G11" s="15">
         <v>42712</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H11" s="14">
         <v>9</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="16">
         <f t="shared" si="0"/>
         <v>17.799999999999994</v>
       </c>
-      <c r="J10" s="25">
-        <f ca="1">J9-SUMIF($D$2:$D$61, G10, $C$2:$C$61)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="J11" s="16">
+        <f ca="1">J10-SUMIF($D$3:$D$62, G11, $C$3:$C$62)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="31">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="36">
         <v>42704</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="G11" s="24">
+      <c r="E12" s="18"/>
+      <c r="G12" s="15">
         <v>42713</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H12" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="25">
-        <f ca="1">J10-SUMIF($D$2:$D$209, G11, $C$2:$C$208)</f>
+      <c r="J12" s="16">
+        <f ca="1">J11-SUMIF($D$3:$D$210, G12, $C$3:$C$209)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="31">
+        <v>4</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="31">
+        <v>8</v>
+      </c>
+      <c r="D14" s="36">
+        <v>42703</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="12"/>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15">
+        <f>C63/H12</f>
+        <v>17.8</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="36">
+        <v>42710</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36">
+        <v>42713</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
+        <v>42704</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="31">
+        <v>3</v>
+      </c>
+      <c r="D20" s="36">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2</v>
+      </c>
+      <c r="D22" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2</v>
+      </c>
+      <c r="D24" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="31">
+        <v>6</v>
+      </c>
+      <c r="D25" s="36">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="31">
+        <v>6</v>
+      </c>
+      <c r="D26" s="36">
+        <v>42704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="31">
+        <v>4</v>
+      </c>
+      <c r="D27" s="36">
+        <v>42711</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="31">
+        <v>5</v>
+      </c>
+      <c r="D28" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="32">
+        <v>4</v>
+      </c>
+      <c r="D29" s="38">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2</v>
+      </c>
+      <c r="D31" s="38">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="38">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="31">
+        <v>2</v>
+      </c>
+      <c r="D33" s="38">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="32">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="C38" s="31">
+        <v>2</v>
+      </c>
+      <c r="D38" s="36">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="31">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="31">
+        <v>8</v>
+      </c>
+      <c r="D40" s="36">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="31">
+        <v>6</v>
+      </c>
+      <c r="D41" s="36">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="31">
+        <v>6</v>
+      </c>
+      <c r="D42" s="36">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="31">
+        <v>6</v>
+      </c>
+      <c r="D43" s="36">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="31">
+        <v>6</v>
+      </c>
+      <c r="D44" s="36">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="31">
+        <v>6</v>
+      </c>
+      <c r="D45" s="36">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="31">
+        <v>6</v>
+      </c>
+      <c r="D46" s="36">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="31">
+        <v>6</v>
+      </c>
+      <c r="D47" s="36">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="31">
+        <v>2</v>
+      </c>
+      <c r="D48" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="31">
+        <v>8</v>
+      </c>
+      <c r="D49" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="31">
+        <v>3</v>
+      </c>
+      <c r="D51" s="36">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="31">
+        <v>1</v>
+      </c>
+      <c r="D52" s="36">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="36"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="31">
+        <v>8</v>
+      </c>
+      <c r="D54" s="36">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="31">
+        <v>2</v>
+      </c>
+      <c r="D55" s="36">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="31">
         <v>4</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="D56" s="36">
         <v>42703</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="18"/>
-      <c r="G14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14">
-        <f>C62/H11</f>
-        <v>17.8</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="31">
+        <v>3</v>
+      </c>
+      <c r="D58" s="36">
+        <v>42709</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="31">
+        <v>1</v>
+      </c>
+      <c r="D59" s="36">
+        <v>42702</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="31">
+        <v>3</v>
+      </c>
+      <c r="D60" s="36">
+        <v>42702</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="31">
+        <v>2</v>
+      </c>
+      <c r="D61" s="36">
+        <v>42713</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="31">
+        <v>4</v>
+      </c>
+      <c r="D62" s="36">
+        <v>42709</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="33">
+        <f>SUM(C3:C62)</f>
+        <v>178</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="13"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E64" s="13"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="13"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E66" s="13"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="13"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E68" s="13"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E70" s="13"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E71" s="13"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E72" s="13"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E73" s="13"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E74" s="13"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E75" s="13"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E76" s="13"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="13"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E78" s="13"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E79" s="13"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E80" s="13"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E81" s="13"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="13"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83" s="13"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="13"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="13"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>42710</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="18"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>42704</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>42703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>42703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7">
-        <v>42711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>42704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="7">
-        <v>42711</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="21">
-        <v>42705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="21">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
-      </c>
-      <c r="D31" s="21">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="5">
-        <v>2</v>
-      </c>
-      <c r="D32" s="21">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="5">
-        <v>8</v>
-      </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="5">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
-        <v>42711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="5">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7">
-        <v>42710</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="5">
-        <v>6</v>
-      </c>
-      <c r="D42" s="7">
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="5">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7">
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="5">
-        <v>6</v>
-      </c>
-      <c r="D44" s="7">
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="5">
-        <v>6</v>
-      </c>
-      <c r="D45" s="7">
-        <v>42710</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="5">
-        <v>6</v>
-      </c>
-      <c r="D46" s="7">
-        <v>42710</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="5">
-        <v>8</v>
-      </c>
-      <c r="D48" s="7">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="5">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7">
-        <v>42705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5">
-        <v>8</v>
-      </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7">
-        <v>42703</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="5">
-        <v>4</v>
-      </c>
-      <c r="D55" s="7">
-        <v>42703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="5">
-        <v>3</v>
-      </c>
-      <c r="D57" s="7">
-        <v>42709</v>
-      </c>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7">
-        <v>42702</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7">
-        <v>42702</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="5">
-        <v>2</v>
-      </c>
-      <c r="D60" s="7">
-        <v>42713</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="17">
-        <v>4</v>
-      </c>
-      <c r="D61" s="8">
-        <v>42709</v>
-      </c>
-      <c r="E61" s="19"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="13"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62">
-        <f>SUM(C2:C61)</f>
-        <v>178</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="19"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="19"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="19"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E65" s="19"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E66" s="19"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E67" s="19"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E68" s="19"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E69" s="19"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E70" s="19"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E71" s="19"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E72" s="19"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E73" s="19"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E74" s="19"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E75" s="19"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E76" s="19"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E77" s="19"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E78" s="19"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E79" s="19"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E80" s="19"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E81" s="19"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E82" s="19"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E83" s="19"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="13"/>
-    </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E84" s="19"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="13"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="6" t="s">
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="6" t="s">
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="B165" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>61</v>
-      </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>62</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>63</v>
-      </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>66</v>
-      </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>67</v>
-      </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>68</v>
-      </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>69</v>
-      </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>70</v>
-      </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>71</v>
-      </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>72</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-      <c r="B192" t="s">
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" t="s">
         <v>73</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>74</v>
-      </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>75</v>
-      </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>86</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>62</v>
-      </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>77</v>
-      </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>76</v>
-      </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>78</v>
-      </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>79</v>
-      </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>80</v>
-      </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>81</v>
-      </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>82</v>
-      </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>83</v>
-      </c>
-      <c r="C206" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D206" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>84</v>
-      </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>85</v>
-      </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
         <v>86</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
+  <mergeCells count="3">
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Evaluering af sprints/Burn down chart - sprint 7.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 7.xlsx
@@ -559,12 +559,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -593,6 +587,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,7 +827,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ideele</c:v>
+            <c:v>Ideelle</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="F26" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,23 +2196,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="17"/>
@@ -2227,12 +2227,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="33"/>
       <c r="G3" s="15">
         <v>42702</v>
       </c>
@@ -2249,17 +2249,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>42709</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G4" s="15">
@@ -2278,17 +2278,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>3</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <v>42710</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="15">
         <v>42704</v>
       </c>
@@ -2306,16 +2306,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>42706</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="38"/>
       <c r="G6" s="15">
         <v>42705</v>
       </c>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>42706</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="38"/>
       <c r="G7" s="15">
         <v>42706</v>
       </c>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>3</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>42709</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="38"/>
       <c r="G8" s="15">
         <v>42709</v>
       </c>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>42710</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="38"/>
       <c r="G9" s="15">
         <v>42710</v>
       </c>
@@ -2413,12 +2413,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="15">
         <v>42711</v>
       </c>
@@ -2436,16 +2436,16 @@
     </row>
     <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>4</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="38" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="15">
@@ -2465,16 +2465,16 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>4</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <v>42704</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="38"/>
       <c r="G12" s="15">
         <v>42713</v>
       </c>
@@ -2491,30 +2491,30 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>4</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="38"/>
       <c r="G13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>42703</v>
       </c>
       <c r="E14" s="12"/>
@@ -2523,12 +2523,12 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="G15" t="s">
         <v>106</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>1</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <v>42710</v>
       </c>
       <c r="E16" s="12"/>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="34">
         <v>42713</v>
       </c>
       <c r="E17" s="12"/>
@@ -2573,488 +2573,488 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>1</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>42704</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>42703</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>3</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>42702</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>42703</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>2</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="29">
         <v>2</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>2</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>6</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="34">
         <v>42711</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>6</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>42704</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>4</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <v>42711</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>5</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="30">
         <v>4</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>42705</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="30">
         <v>2</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="36">
         <v>42702</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="30">
         <v>2</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>42702</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="29">
         <v>2</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="36">
         <v>42702</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="30">
         <v>1</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="29">
         <v>1</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>42702</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="29">
         <v>1</v>
       </c>
-      <c r="D36" s="36"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="29">
         <v>2</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="34">
         <v>42709</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="29">
         <v>1</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>42709</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="29">
         <v>8</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="34">
         <v>42713</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="29">
         <v>6</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>42711</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="29">
         <v>6</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="34">
         <v>42710</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="29">
         <v>6</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>42709</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="29">
         <v>6</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="34">
         <v>42709</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="29">
         <v>6</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="34">
         <v>42709</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="29">
         <v>6</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="34">
         <v>42710</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="29">
         <v>6</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="34">
         <v>42710</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="29">
         <v>2</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="29">
         <v>8</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="29">
         <v>3</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="34">
         <v>42702</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="29">
         <v>1</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="34">
         <v>42705</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="25" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="29">
         <v>8</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="34">
         <v>42712</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="25" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="29">
         <v>2</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="34">
         <v>42703</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="29">
         <v>4</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="34">
         <v>42703</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="36"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="29">
         <v>3</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="34">
         <v>42709</v>
       </c>
       <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="29">
         <v>1</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="34">
         <v>42702</v>
       </c>
       <c r="E59" s="13"/>
@@ -3062,14 +3062,14 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="29">
         <v>3</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="34">
         <v>42702</v>
       </c>
       <c r="E60" s="13"/>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="29">
         <v>2</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="34">
         <v>42713</v>
       </c>
       <c r="E61" s="13"/>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="29">
         <v>4</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="34">
         <v>42709</v>
       </c>
       <c r="E62" s="13"/>
@@ -3107,13 +3107,13 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="33">
+      <c r="A63" s="20"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="31">
         <f>SUM(C3:C62)</f>
         <v>178</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="13"/>
       <c r="I63" s="11"/>
       <c r="J63" s="9"/>
